--- a/Produto_Escolhido--Battlefield5.xlsx
+++ b/Produto_Escolhido--Battlefield5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gterh\Projeto1_CD18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2BC6C8-FE00-40AE-80AB-D9BFF4CBA679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F2B728-02F9-44A0-8FEC-6D261C108CCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="288">
   <si>
     <t>Treinamento</t>
   </si>
@@ -644,9 +644,6 @@
   </si>
   <si>
     <t>Teste</t>
-  </si>
-  <si>
-    <t>Relevancia</t>
   </si>
   <si>
     <t>battlefield v doesn't feel nearly as good as i wanted it to.</t>
@@ -1413,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1429,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1496,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1560,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1576,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1600,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1624,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
@@ -1656,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -1664,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -1688,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
@@ -1792,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -1800,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -1848,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -1896,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -1912,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>44</v>
       </c>
@@ -1920,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
@@ -1936,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>48</v>
       </c>
@@ -1968,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>50</v>
       </c>
@@ -1992,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>53</v>
       </c>
@@ -2024,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
@@ -2032,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>57</v>
       </c>
@@ -2056,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>59</v>
       </c>
@@ -2104,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>2</v>
       </c>
@@ -2112,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>2</v>
       </c>
@@ -2120,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>64</v>
       </c>
@@ -2128,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>67</v>
       </c>
@@ -2176,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
@@ -2192,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>2</v>
       </c>
@@ -2200,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>53</v>
       </c>
@@ -2208,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>70</v>
       </c>
@@ -2248,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>50</v>
       </c>
@@ -2288,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
@@ -2344,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>2</v>
       </c>
@@ -2360,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>79</v>
       </c>
@@ -2408,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>2</v>
       </c>
@@ -2424,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>2</v>
       </c>
@@ -2456,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>85</v>
       </c>
@@ -2464,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>2</v>
       </c>
@@ -2512,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>90</v>
       </c>
@@ -2544,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>2</v>
       </c>
@@ -2552,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>2</v>
       </c>
@@ -2584,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>2</v>
       </c>
@@ -2592,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>95</v>
       </c>
@@ -2640,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>2</v>
       </c>
@@ -2648,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>100</v>
       </c>
@@ -2680,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>104</v>
       </c>
@@ -2696,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>2</v>
       </c>
@@ -2752,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>112</v>
       </c>
@@ -2760,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>2</v>
       </c>
@@ -2776,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>113</v>
       </c>
@@ -2784,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>2</v>
       </c>
@@ -2848,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>2</v>
       </c>
@@ -2856,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>2</v>
       </c>
@@ -2864,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>118</v>
       </c>
@@ -2912,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>2</v>
       </c>
@@ -2920,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>124</v>
       </c>
@@ -2928,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>2</v>
       </c>
@@ -2936,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>24</v>
       </c>
@@ -2944,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>19</v>
       </c>
@@ -2984,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>2</v>
       </c>
@@ -3016,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>2</v>
       </c>
@@ -3040,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>4</v>
       </c>
@@ -3048,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>2</v>
       </c>
@@ -3072,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>2</v>
       </c>
@@ -3080,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>79</v>
       </c>
@@ -3096,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>19</v>
       </c>
@@ -3176,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>44</v>
       </c>
@@ -3200,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>2</v>
       </c>
@@ -3232,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>142</v>
       </c>
@@ -3240,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>2</v>
       </c>
@@ -3248,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>2</v>
       </c>
@@ -3296,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>148</v>
       </c>
@@ -3328,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>2</v>
       </c>
@@ -3360,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>53</v>
       </c>
@@ -3845,8 +3842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3861,7 +3858,7 @@
         <v>183</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>184</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -3874,7 +3871,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -3882,7 +3879,7 @@
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -3898,7 +3895,7 @@
     </row>
     <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -3922,7 +3919,7 @@
     </row>
     <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -3946,7 +3943,7 @@
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -3954,7 +3951,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -3962,7 +3959,7 @@
     </row>
     <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
@@ -3970,7 +3967,7 @@
     </row>
     <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
@@ -3978,7 +3975,7 @@
     </row>
     <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -3986,7 +3983,7 @@
     </row>
     <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
@@ -3994,7 +3991,7 @@
     </row>
     <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
@@ -4010,7 +4007,7 @@
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
@@ -4018,7 +4015,7 @@
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="5">
         <v>0</v>
@@ -4026,7 +4023,7 @@
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
@@ -4034,7 +4031,7 @@
     </row>
     <row r="23" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -4050,7 +4047,7 @@
     </row>
     <row r="25" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -4058,7 +4055,7 @@
     </row>
     <row r="26" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="5">
         <v>0</v>
@@ -4074,7 +4071,7 @@
     </row>
     <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -4090,7 +4087,7 @@
     </row>
     <row r="30" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B30" s="5">
         <v>0</v>
@@ -4106,7 +4103,7 @@
     </row>
     <row r="32" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
@@ -4138,7 +4135,7 @@
     </row>
     <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" s="5">
         <v>0</v>
@@ -4146,7 +4143,7 @@
     </row>
     <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
@@ -4154,7 +4151,7 @@
     </row>
     <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" s="5">
         <v>0</v>
@@ -4162,7 +4159,7 @@
     </row>
     <row r="39" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
@@ -4170,7 +4167,7 @@
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40" s="5">
         <v>0</v>
@@ -4186,7 +4183,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
@@ -4194,7 +4191,7 @@
     </row>
     <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
@@ -4218,7 +4215,7 @@
     </row>
     <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
@@ -4234,7 +4231,7 @@
     </row>
     <row r="48" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -4250,7 +4247,7 @@
     </row>
     <row r="50" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -4266,7 +4263,7 @@
     </row>
     <row r="52" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -4282,7 +4279,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -4298,7 +4295,7 @@
     </row>
     <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" s="5">
         <v>0</v>
@@ -4306,7 +4303,7 @@
     </row>
     <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -4322,7 +4319,7 @@
     </row>
     <row r="59" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
@@ -4338,7 +4335,7 @@
     </row>
     <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B61" s="5">
         <v>1</v>
@@ -4354,7 +4351,7 @@
     </row>
     <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
@@ -4362,7 +4359,7 @@
     </row>
     <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B64" s="5">
         <v>0</v>
@@ -4370,7 +4367,7 @@
     </row>
     <row r="65" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B65" s="5">
         <v>0</v>
@@ -4386,7 +4383,7 @@
     </row>
     <row r="67" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B67" s="5">
         <v>1</v>
@@ -4394,7 +4391,7 @@
     </row>
     <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B68" s="5">
         <v>0</v>
@@ -4410,7 +4407,7 @@
     </row>
     <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B70" s="5">
         <v>0</v>
@@ -4466,7 +4463,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B77" s="5">
         <v>0</v>
@@ -4474,7 +4471,7 @@
     </row>
     <row r="78" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B78" s="5">
         <v>0</v>
@@ -4498,7 +4495,7 @@
     </row>
     <row r="81" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B81" s="5">
         <v>1</v>
@@ -4514,7 +4511,7 @@
     </row>
     <row r="83" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B83" s="5">
         <v>0</v>
@@ -4562,7 +4559,7 @@
     </row>
     <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B89" s="5">
         <v>1</v>
@@ -4570,7 +4567,7 @@
     </row>
     <row r="90" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B90" s="5">
         <v>1</v>
@@ -4578,7 +4575,7 @@
     </row>
     <row r="91" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B91" s="5">
         <v>0</v>
@@ -4594,7 +4591,7 @@
     </row>
     <row r="93" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B93" s="5">
         <v>1</v>
@@ -4610,7 +4607,7 @@
     </row>
     <row r="95" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B95" s="5">
         <v>0</v>
@@ -4626,7 +4623,7 @@
     </row>
     <row r="97" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B97" s="5">
         <v>0</v>
@@ -4666,7 +4663,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B102" s="5">
         <v>0</v>
@@ -4698,7 +4695,7 @@
     </row>
     <row r="106" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B106" s="5">
         <v>0</v>
@@ -4706,7 +4703,7 @@
     </row>
     <row r="107" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B107" s="5">
         <v>0</v>
@@ -4714,7 +4711,7 @@
     </row>
     <row r="108" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B108" s="5">
         <v>0</v>
@@ -4722,7 +4719,7 @@
     </row>
     <row r="109" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B109" s="5">
         <v>0</v>
@@ -4770,7 +4767,7 @@
     </row>
     <row r="115" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B115" s="5">
         <v>0</v>
@@ -4786,7 +4783,7 @@
     </row>
     <row r="117" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B117" s="5">
         <v>0</v>
@@ -4794,7 +4791,7 @@
     </row>
     <row r="118" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B118" s="5">
         <v>0</v>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="119" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B119" s="5">
         <v>0</v>
@@ -4810,7 +4807,7 @@
     </row>
     <row r="120" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B120" s="5">
         <v>0</v>
@@ -4826,7 +4823,7 @@
     </row>
     <row r="122" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B122" s="5">
         <v>0</v>
@@ -4834,7 +4831,7 @@
     </row>
     <row r="123" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B123" s="5">
         <v>1</v>
@@ -4842,7 +4839,7 @@
     </row>
     <row r="124" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B124" s="5">
         <v>0</v>
@@ -4874,7 +4871,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B128" s="5">
         <v>0</v>
@@ -4882,7 +4879,7 @@
     </row>
     <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B129" s="5">
         <v>1</v>
@@ -4890,7 +4887,7 @@
     </row>
     <row r="130" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B130" s="5">
         <v>0</v>
@@ -4898,7 +4895,7 @@
     </row>
     <row r="131" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B131" s="5">
         <v>0</v>
@@ -4906,7 +4903,7 @@
     </row>
     <row r="132" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B132" s="5">
         <v>0</v>
@@ -4930,7 +4927,7 @@
     </row>
     <row r="135" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B135" s="5">
         <v>0</v>
@@ -5002,7 +4999,7 @@
     </row>
     <row r="144" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B144" s="5">
         <v>0</v>
@@ -5010,7 +5007,7 @@
     </row>
     <row r="145" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B145" s="5">
         <v>0</v>
@@ -5018,7 +5015,7 @@
     </row>
     <row r="146" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B146" s="5">
         <v>0</v>
@@ -5042,7 +5039,7 @@
     </row>
     <row r="149" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B149" s="5">
         <v>0</v>
@@ -5050,7 +5047,7 @@
     </row>
     <row r="150" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B150" s="5">
         <v>0</v>
@@ -5058,7 +5055,7 @@
     </row>
     <row r="151" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B151" s="5">
         <v>0</v>
@@ -5074,7 +5071,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B153" s="5">
         <v>0</v>
@@ -5090,7 +5087,7 @@
     </row>
     <row r="155" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B155" s="5">
         <v>0</v>
@@ -5098,7 +5095,7 @@
     </row>
     <row r="156" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B156" s="5">
         <v>0</v>
@@ -5114,7 +5111,7 @@
     </row>
     <row r="158" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B158" s="5">
         <v>0</v>
@@ -5122,7 +5119,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B159" s="5">
         <v>1</v>
@@ -5154,7 +5151,7 @@
     </row>
     <row r="163" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B163" s="5">
         <v>0</v>
@@ -5162,7 +5159,7 @@
     </row>
     <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B164" s="5">
         <v>0</v>
@@ -5170,7 +5167,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B165" s="5">
         <v>1</v>
@@ -5199,7 +5196,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B169" s="5">
         <v>0</v>
@@ -5215,7 +5212,7 @@
     </row>
     <row r="171" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B171" s="5">
         <v>0</v>
@@ -5231,7 +5228,7 @@
     </row>
     <row r="173" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B173" s="5">
         <v>0</v>
@@ -5247,7 +5244,7 @@
     </row>
     <row r="175" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" s="5">
         <v>0</v>
@@ -5271,7 +5268,7 @@
     </row>
     <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B178" s="5">
         <v>0</v>
@@ -5279,7 +5276,7 @@
     </row>
     <row r="179" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B179" s="5">
         <v>0</v>
@@ -5311,7 +5308,7 @@
     </row>
     <row r="183" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" s="5">
         <v>1</v>
@@ -5319,7 +5316,7 @@
     </row>
     <row r="184" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" s="5">
         <v>0</v>
@@ -5351,7 +5348,7 @@
     </row>
     <row r="188" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B188" s="5">
         <v>1</v>
@@ -5367,7 +5364,7 @@
     </row>
     <row r="190" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B190" s="5">
         <v>1</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="191" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B191" s="5">
         <v>0</v>
@@ -5383,7 +5380,7 @@
     </row>
     <row r="192" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B192" s="5">
         <v>0</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="193" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B193" s="5">
         <v>0</v>
@@ -5399,7 +5396,7 @@
     </row>
     <row r="194" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B194" s="5">
         <v>0</v>
@@ -5415,7 +5412,7 @@
     </row>
     <row r="196" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B196" s="5">
         <v>0</v>
@@ -5423,7 +5420,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B197" s="5">
         <v>1</v>
@@ -5439,7 +5436,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B199" s="5">
         <v>1</v>
@@ -5447,7 +5444,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B200" s="5">
         <v>0</v>
@@ -5455,7 +5452,7 @@
     </row>
     <row r="201" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B201" s="5">
         <v>1</v>
